--- a/va_facility_data_2025-02-20/Richland VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Richland%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Richland VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Richland%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R61914ba728d449d19d634506a348a72e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7729be8e82d845fab91b545d235bd281"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7ff01d88839345a59dafa78cfd20e223"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R9bc2fa0215c643e38e5e3d200141f6c1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9b1d00960e0145ce86a948afbd9aefc9"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R27460229fed64137ac2fded8c3522944"/>
   </x:sheets>
 </x:workbook>
 </file>
